--- a/biology/Botanique/Monilinia/Monilinia.xlsx
+++ b/biology/Botanique/Monilinia/Monilinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monilinia est un genre de champignons ascomycètes de la famille des Sclerotiniaceae. Le stade anamorphe de cette espèce est Monilia.
 Ce genre comprend de nombreuses espèces phytopathogènes, responsables de diverses formes de moniliose.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (22 septembre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (22 septembre 2014) :
 Monilinia alpina
 Monilinia amelanchieris
 Monilinia ariae
@@ -550,7 +564,7 @@
 Monilinia ssiori
 Monilinia urnula
 Monilinia vaccinii-corymbosi
-Selon Index Fungorum                                      (22 septembre 2014)[3] :
+Selon Index Fungorum                                      (22 septembre 2014) :
 Monilinia alpina L.R. Batra 1991
 Monilinia amelanchieris (J.M. Reade) Honey 1936
 Monilinia ariae (Schellenb.) Whetzel 1945
@@ -590,9 +604,9 @@
 Monilinia ssiori Y. Harada, M. Sasaki &amp; Sano 2005
 Monilinia urnula (Weinm.) Whetzel 1945
 Monilinia vaccinii-corymbosi (J.M. Reade) Honey 1936
-Selon ITIS      (22 septembre 2014)[1] :
+Selon ITIS      (22 septembre 2014) :
 Monilinia fructicola (Winter) Honey
-Selon NCBI  (22 septembre 2014)[4] :
+Selon NCBI  (22 septembre 2014) :
 Monilinia amelanchieris
 Monilinia aucupariae
 Monilinia azaleae
